--- a/text_recipe_file - short.xlsx
+++ b/text_recipe_file - short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5895722A-8A9A-4354-AB4B-5835B6CEA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D6080-8584-4F82-A924-5CAA23390F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Pump 1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Valve 3</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>CW</t>
   </si>
   <si>
     <t>Time point (min)</t>
@@ -396,7 +390,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +403,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -438,19 +432,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -458,19 +452,19 @@
         <v>0.2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -478,19 +472,19 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,19 +492,19 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/text_recipe_file - short.xlsx
+++ b/text_recipe_file - short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D6080-8584-4F82-A924-5CAA23390F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B956-8696-4542-9ABF-E90C03EC81B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Pump 1</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +530,49 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/text_recipe_file - short.xlsx
+++ b/text_recipe_file - short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B956-8696-4542-9ABF-E90C03EC81B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF5006E-BA85-4BB1-B3A6-DC86BD9BC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Pump 1</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>empty</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,49 +527,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
